--- a/Android/ExcelData/AttributeSuperiority.xlsx
+++ b/Android/ExcelData/AttributeSuperiority.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC8EB1-950B-4882-A66D-FCD4E063E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28939675-02F6-4151-BA4A-1B4F6B6415EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39630" yWindow="2220" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40065" yWindow="2490" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
-    <sheet name="!attribute_superiority" sheetId="1" r:id="rId2"/>
-    <sheet name="!attribute_synergy" sheetId="4" r:id="rId3"/>
+    <sheet name="attribute_superiority" sheetId="1" r:id="rId2"/>
+    <sheet name="attribute_synergy" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM:ATTRIBUTE_TYPEE:NONE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>defender_attribute_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,9 +162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>101 공격력 기준 배율 계산</t>
-  </si>
-  <si>
     <t>multiple_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,6 +183,13 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201 공격력 배율 계산</t>
+  </si>
+  <si>
+    <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,183 +449,183 @@
             <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력 기준 절대값 계산</v>
+            <v>100 공격력 절대값 계산</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ATTACK</v>
+            <v>DEFENSE_VALUE</v>
           </cell>
           <cell r="B6">
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 공격력 기준 배율 계산</v>
+            <v>101 방어력 절대값 계산</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>DEFENSE</v>
+            <v>MAX_LIFE</v>
           </cell>
           <cell r="B7">
             <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 방어력 기준 절대값 계산</v>
+            <v>102 최대 체력 절대 값</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>DEFENSE_RATE</v>
+            <v>LIFE</v>
           </cell>
           <cell r="B8">
             <v>103</v>
           </cell>
           <cell r="C8" t="str">
-            <v>103 방어력 기준 배율 계산</v>
+            <v>103 현재 체력 절대 값</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>MAX_LIFE</v>
+            <v>CRITICAL_CHANCE</v>
           </cell>
           <cell r="B9">
             <v>104</v>
           </cell>
           <cell r="C9" t="str">
-            <v>104 최대 체력 기준 절대값 계산</v>
+            <v>104 크리티컬 확률 절대값</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>MAX_LIFE_RATE</v>
+            <v>CRITICAL_POWER_ADD</v>
           </cell>
           <cell r="B10">
             <v>105</v>
           </cell>
           <cell r="C10" t="str">
-            <v>105 최대 체력 기준 배율 계산</v>
+            <v>105 크리티컬 파워 절대 값</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LIFE</v>
+            <v>ACCURACY_VALUE</v>
           </cell>
           <cell r="B11">
             <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>106 현재 체력 기준 절대값 계산</v>
+            <v>106 명중률 절대 값</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LIFE_RATE</v>
+            <v>EVASION_VALUE</v>
           </cell>
           <cell r="B12">
             <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>107 현재 체력 기준 배율 계산</v>
+            <v>107 회피율 절대 값</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>CRITICAL_RATE</v>
+            <v>HEAL_VALUE</v>
           </cell>
           <cell r="B13">
             <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>108 크리티컬 확률을 절대값 계산</v>
+            <v>108 회복량 절대 값</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>CRITICAL_PROBABILITY_RATE</v>
+            <v>ATTACK_RATE</v>
           </cell>
           <cell r="B14">
-            <v>109</v>
+            <v>201</v>
           </cell>
           <cell r="C14" t="str">
-            <v>109 크리티컬 확률을 배율 계산</v>
+            <v>201 공격력 배율 계산</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>CRITICAL_POWER</v>
+            <v>DEFENSE_RATE</v>
           </cell>
           <cell r="B15">
-            <v>110</v>
+            <v>202</v>
           </cell>
           <cell r="C15" t="str">
-            <v>110 크리티컬 파워 기준 절대값 계산</v>
+            <v>202 방어력 배율 계산</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>CRITICAL_POWER_RATE</v>
+            <v>MAX_LIFE_RATE</v>
           </cell>
           <cell r="B16">
-            <v>111</v>
+            <v>203</v>
           </cell>
           <cell r="C16" t="str">
-            <v>111 크리티컬 파워 기준 배율 계산</v>
+            <v>203 최대 체력 배율 값</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ACCURACY</v>
+            <v>LIFE_RATE</v>
           </cell>
           <cell r="B17">
-            <v>112</v>
+            <v>204</v>
           </cell>
           <cell r="C17" t="str">
-            <v>112 명중률 기준 절대값 계산</v>
+            <v>204 현재 체력 배율 계산</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>ACCURACY_RATE</v>
+            <v>CRITICAL_CHANCE_RATE</v>
           </cell>
           <cell r="B18">
-            <v>113</v>
+            <v>205</v>
           </cell>
           <cell r="C18" t="str">
-            <v>113 명중률 기준 배율 계산</v>
+            <v>205 크리티컬 확률 배율 계산</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>EVASION</v>
+            <v>CRITICAL_POWER_ADD_RATE</v>
           </cell>
           <cell r="B19">
-            <v>114</v>
+            <v>206</v>
           </cell>
           <cell r="C19" t="str">
-            <v>114 회피율 기준 절대값 계산</v>
+            <v>206 크리티컬 파워 배율 계산</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>EVASION_RATE</v>
+            <v>ACCURACY_RATE</v>
           </cell>
           <cell r="B20">
-            <v>115</v>
+            <v>207</v>
           </cell>
           <cell r="C20" t="str">
-            <v>115 회피율 기준 배율 계산</v>
+            <v>207 명중률 배율 계산</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HEAL_VALUE</v>
+            <v>EVASION_RATE</v>
           </cell>
           <cell r="B21">
-            <v>116</v>
+            <v>208</v>
           </cell>
           <cell r="C21" t="str">
-            <v>116 회복량 기준 절대값 계산</v>
+            <v>208 회피율 배율 계산</v>
           </cell>
         </row>
         <row r="22">
@@ -633,10 +633,10 @@
             <v>HEAL_RATE</v>
           </cell>
           <cell r="B22">
-            <v>117</v>
+            <v>209</v>
           </cell>
           <cell r="C22" t="str">
-            <v>117 회복량 기준 배율 계산</v>
+            <v>209 회복량 배율 계산</v>
           </cell>
         </row>
         <row r="23">
@@ -644,10 +644,10 @@
             <v>DAMAGE</v>
           </cell>
           <cell r="B23">
-            <v>118</v>
+            <v>210</v>
           </cell>
           <cell r="C23" t="str">
-            <v>118 피해량 기준 배율 계산</v>
+            <v>210 피해량 배율 계산</v>
           </cell>
         </row>
       </sheetData>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>100 공격력 기준 절대값 계산</v>
+        <v>100 공격력 절대값 계산</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
-        <v>ATTACK</v>
+        <v>DEFENSE_VALUE</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@stat'!$B6</f>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>101 공격력 기준 배율 계산</v>
+        <v>101 방어력 절대값 계산</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
-        <v>DEFENSE</v>
+        <v>MAX_LIFE</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@stat'!$B7</f>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>102 방어력 기준 절대값 계산</v>
+        <v>102 최대 체력 절대 값</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
-        <v>DEFENSE_RATE</v>
+        <v>LIFE</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@stat'!$B8</f>
@@ -1193,13 +1193,13 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>103 방어력 기준 배율 계산</v>
+        <v>103 현재 체력 절대 값</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
-        <v>MAX_LIFE</v>
+        <v>CRITICAL_CHANCE</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@stat'!$B9</f>
@@ -1207,13 +1207,13 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>104 최대 체력 기준 절대값 계산</v>
+        <v>104 크리티컬 확률 절대값</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
-        <v>MAX_LIFE_RATE</v>
+        <v>CRITICAL_POWER_ADD</v>
       </c>
       <c r="F10" s="4">
         <f>'[1]@stat'!$B10</f>
@@ -1221,13 +1221,13 @@
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>105 최대 체력 기준 배율 계산</v>
+        <v>105 크리티컬 파워 절대 값</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
-        <v>LIFE</v>
+        <v>ACCURACY_VALUE</v>
       </c>
       <c r="F11" s="4">
         <f>'[1]@stat'!$B11</f>
@@ -1235,13 +1235,13 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>106 현재 체력 기준 절대값 계산</v>
+        <v>106 명중률 절대 값</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
-        <v>LIFE_RATE</v>
+        <v>EVASION_VALUE</v>
       </c>
       <c r="F12" s="4">
         <f>'[1]@stat'!$B12</f>
@@ -1249,13 +1249,13 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>107 현재 체력 기준 배율 계산</v>
+        <v>107 회피율 절대 값</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
-        <v>CRITICAL_RATE</v>
+        <v>HEAL_VALUE</v>
       </c>
       <c r="F13" s="4">
         <f>'[1]@stat'!$B13</f>
@@ -1263,119 +1263,119 @@
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>108 크리티컬 확률을 절대값 계산</v>
+        <v>108 회복량 절대 값</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
-        <v>CRITICAL_PROBABILITY_RATE</v>
+        <v>ATTACK_RATE</v>
       </c>
       <c r="F14" s="4">
         <f>'[1]@stat'!$B14</f>
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>109 크리티컬 확률을 배율 계산</v>
+        <v>201 공격력 배율 계산</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="str">
         <f>'[1]@stat'!$A15</f>
-        <v>CRITICAL_POWER</v>
+        <v>DEFENSE_RATE</v>
       </c>
       <c r="F15" s="4">
         <f>'[1]@stat'!$B15</f>
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>'[1]@stat'!$C15</f>
-        <v>110 크리티컬 파워 기준 절대값 계산</v>
+        <v>202 방어력 배율 계산</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" s="4" t="str">
         <f>'[1]@stat'!$A16</f>
-        <v>CRITICAL_POWER_RATE</v>
+        <v>MAX_LIFE_RATE</v>
       </c>
       <c r="F16" s="4">
         <f>'[1]@stat'!$B16</f>
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>'[1]@stat'!$C16</f>
-        <v>111 크리티컬 파워 기준 배율 계산</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="4" t="str">
         <f>'[1]@stat'!$A17</f>
-        <v>ACCURACY</v>
+        <v>LIFE_RATE</v>
       </c>
       <c r="F17" s="4">
         <f>'[1]@stat'!$B17</f>
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>'[1]@stat'!$C17</f>
-        <v>112 명중률 기준 절대값 계산</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="str">
         <f>'[1]@stat'!$A18</f>
-        <v>ACCURACY_RATE</v>
+        <v>CRITICAL_CHANCE_RATE</v>
       </c>
       <c r="F18" s="4">
         <f>'[1]@stat'!$B18</f>
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>'[1]@stat'!$C18</f>
-        <v>113 명중률 기준 배율 계산</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="str">
         <f>'[1]@stat'!$A19</f>
-        <v>EVASION</v>
+        <v>CRITICAL_POWER_ADD_RATE</v>
       </c>
       <c r="F19" s="4">
         <f>'[1]@stat'!$B19</f>
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>'[1]@stat'!$C19</f>
-        <v>114 회피율 기준 절대값 계산</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="str">
         <f>'[1]@stat'!$A20</f>
-        <v>EVASION_RATE</v>
+        <v>ACCURACY_RATE</v>
       </c>
       <c r="F20" s="4">
         <f>'[1]@stat'!$B20</f>
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>'[1]@stat'!$C20</f>
-        <v>115 회피율 기준 배율 계산</v>
+        <v>207 명중률 배율 계산</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="str">
         <f>'[1]@stat'!$A21</f>
-        <v>HEAL_VALUE</v>
+        <v>EVASION_RATE</v>
       </c>
       <c r="F21" s="4">
         <f>'[1]@stat'!$B21</f>
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>'[1]@stat'!$C21</f>
-        <v>116 회복량 기준 절대값 계산</v>
+        <v>208 회피율 배율 계산</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="F22" s="4">
         <f>'[1]@stat'!$B22</f>
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>'[1]@stat'!$C22</f>
-        <v>117 회복량 기준 배율 계산</v>
+        <v>209 회복량 배율 계산</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.3">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="F23" s="4">
         <f>'[1]@stat'!$B23</f>
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>'[1]@stat'!$C23</f>
-        <v>118 피해량 기준 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
     </row>
   </sheetData>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1442,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,10 +1476,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FD538-A2BC-48BA-B803-2D75EC29AB04}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -1639,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1650,13 +1650,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -1675,10 +1675,10 @@
       </c>
       <c r="D5" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E5,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F5" s="11">
         <v>0.05</v>
@@ -1697,10 +1697,10 @@
       </c>
       <c r="D6" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E6,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" s="11">
         <v>0.1</v>
@@ -1719,10 +1719,10 @@
       </c>
       <c r="D7" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E7,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" s="11">
         <v>0.15</v>
@@ -1741,10 +1741,10 @@
       </c>
       <c r="D8" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E8,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" s="11">
         <v>0.2</v>
@@ -1763,10 +1763,10 @@
       </c>
       <c r="D9" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E9,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9" s="11">
         <v>0.05</v>
@@ -1785,10 +1785,10 @@
       </c>
       <c r="D10" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E10,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F10" s="11">
         <v>0.1</v>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="D11" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E11,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11" s="11">
         <v>0.15</v>
@@ -1829,10 +1829,10 @@
       </c>
       <c r="D12" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E12,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11">
         <v>0.2</v>
@@ -1851,10 +1851,10 @@
       </c>
       <c r="D13" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E13,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11">
         <v>0.05</v>
@@ -1873,10 +1873,10 @@
       </c>
       <c r="D14" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E14,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14" s="11">
         <v>0.1</v>
@@ -1895,10 +1895,10 @@
       </c>
       <c r="D15" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E15,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15" s="11">
         <v>0.15</v>
@@ -1917,10 +1917,10 @@
       </c>
       <c r="D16" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E16,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F16" s="11">
         <v>0.2</v>
@@ -1939,10 +1939,10 @@
       </c>
       <c r="D17" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E17,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F17" s="11">
         <v>0.05</v>
@@ -1961,10 +1961,10 @@
       </c>
       <c r="D18" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E18,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11">
         <v>0.1</v>
@@ -1983,10 +1983,10 @@
       </c>
       <c r="D19" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E19,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="11">
         <v>0.15</v>
@@ -2005,10 +2005,10 @@
       </c>
       <c r="D20" s="11">
         <f>INDEX('!참조_ENUM'!$F$3:$F$23,MATCH(E20,'!참조_ENUM'!$G$3:$G$23,0))</f>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F20" s="11">
         <v>0.2</v>
@@ -2019,7 +2019,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2578FE3E-71F4-446D-8FF0-84B8F4FACF17}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$8</xm:f>

--- a/Android/ExcelData/AttributeSuperiority.xlsx
+++ b/Android/ExcelData/AttributeSuperiority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28939675-02F6-4151-BA4A-1B4F6B6415EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CFED3-6EE9-4740-A090-4C510C21DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40065" yWindow="2490" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1425" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -43,10 +43,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SKII TYPE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>ENUM:ATTRIBUTE_TYPE:NONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -413,13 +413,40 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -734,6 +761,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1033,37 +1063,37 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1416,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1431,58 +1461,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,14 +1521,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D5,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="11">
         <v>0.5</v>
@@ -1510,14 +1540,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D6,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="11">
         <v>0.5</v>
@@ -1529,14 +1559,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D7,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11">
         <v>0.5</v>
@@ -1548,14 +1578,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D8,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11">
         <v>0.5</v>
@@ -1583,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FD538-A2BC-48BA-B803-2D75EC29AB04}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1599,67 +1629,67 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1668,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -1678,7 +1708,7 @@
         <v>201</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="11">
         <v>0.05</v>
@@ -1690,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
@@ -1700,7 +1730,7 @@
         <v>201</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11">
         <v>0.1</v>
@@ -1712,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11">
         <v>4</v>
@@ -1722,7 +1752,7 @@
         <v>201</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11">
         <v>0.15</v>
@@ -1734,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11">
         <v>5</v>
@@ -1744,7 +1774,7 @@
         <v>201</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11">
         <v>0.2</v>
@@ -1756,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
@@ -1766,7 +1796,7 @@
         <v>201</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11">
         <v>0.05</v>
@@ -1778,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
@@ -1788,7 +1818,7 @@
         <v>201</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="11">
         <v>0.1</v>
@@ -1800,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
@@ -1810,7 +1840,7 @@
         <v>201</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="11">
         <v>0.15</v>
@@ -1822,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -1832,7 +1862,7 @@
         <v>201</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11">
         <v>0.2</v>
@@ -1844,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11">
         <v>2</v>
@@ -1854,7 +1884,7 @@
         <v>201</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="11">
         <v>0.05</v>
@@ -1866,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
@@ -1876,7 +1906,7 @@
         <v>201</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="11">
         <v>0.1</v>
@@ -1888,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11">
         <v>4</v>
@@ -1898,7 +1928,7 @@
         <v>201</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="11">
         <v>0.15</v>
@@ -1910,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11">
         <v>5</v>
@@ -1920,7 +1950,7 @@
         <v>201</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="11">
         <v>0.2</v>
@@ -1932,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
@@ -1942,7 +1972,7 @@
         <v>201</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="11">
         <v>0.05</v>
@@ -1954,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11">
         <v>3</v>
@@ -1964,7 +1994,7 @@
         <v>201</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="11">
         <v>0.1</v>
@@ -1976,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11">
         <v>4</v>
@@ -1986,7 +2016,7 @@
         <v>201</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="11">
         <v>0.15</v>
@@ -1998,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="11">
         <v>5</v>
@@ -2008,7 +2038,7 @@
         <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="11">
         <v>0.2</v>

--- a/Android/ExcelData/AttributeSuperiority.xlsx
+++ b/Android/ExcelData/AttributeSuperiority.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CFED3-6EE9-4740-A090-4C510C21DE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36E45B-6A39-43E6-A0A3-58B0C963C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1425" windowWidth="34815" windowHeight="16545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39630" yWindow="1770" windowWidth="38115" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>SKII TYPE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -191,6 +191,30 @@
   <si>
     <t>key_2:int</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시너지 효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_synergy_electric</t>
+  </si>
+  <si>
+    <t>system_attribute_synergy_veritarium</t>
+  </si>
+  <si>
+    <t>system_attribute_synergy_charm</t>
+  </si>
+  <si>
+    <t>system_attribute_synergy_mana</t>
   </si>
 </sst>
 </file>
@@ -418,35 +442,11 @@
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FD538-A2BC-48BA-B803-2D75EC29AB04}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1624,15 +1624,16 @@
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
     <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1649,10 +1650,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1669,10 +1673,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1689,10 +1696,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B5,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>1</v>
@@ -1710,11 +1720,14 @@
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B6,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>1</v>
@@ -1732,11 +1745,14 @@
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B7,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>1</v>
@@ -1754,11 +1770,14 @@
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B8,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>1</v>
@@ -1776,11 +1795,14 @@
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B9,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>2</v>
@@ -1798,11 +1820,14 @@
       <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B10,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>2</v>
@@ -1820,11 +1845,14 @@
       <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B11,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>2</v>
@@ -1842,11 +1870,14 @@
       <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B12,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>2</v>
@@ -1864,11 +1895,14 @@
       <c r="E12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B13,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>3</v>
@@ -1886,11 +1920,14 @@
       <c r="E13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B14,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>3</v>
@@ -1908,11 +1945,14 @@
       <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B15,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>3</v>
@@ -1930,11 +1970,14 @@
       <c r="E15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B16,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>3</v>
@@ -1952,11 +1995,14 @@
       <c r="E16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B17,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>4</v>
@@ -1974,11 +2020,14 @@
       <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B18,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>4</v>
@@ -1996,11 +2045,14 @@
       <c r="E18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B19,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>4</v>
@@ -2018,11 +2070,14 @@
       <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(B20,'!참조_ENUM'!$C$3:$C$10,0))</f>
         <v>4</v>
@@ -2040,7 +2095,10 @@
       <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11">
         <v>0.2</v>
       </c>
     </row>

--- a/Android/ExcelData/AttributeSuperiority.xlsx
+++ b/Android/ExcelData/AttributeSuperiority.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36E45B-6A39-43E6-A0A3-58B0C963C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4FAB37-BA61-44F4-82A2-BED14030A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39630" yWindow="1770" windowWidth="38115" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="3090" windowWidth="28770" windowHeight="17415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -421,6 +421,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -437,9 +438,8 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
-      <sheetName val="@sd_body_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -699,7 +699,8 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
             <v>ATTRIBUTE_TYPE</v>
@@ -740,7 +741,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>VITALITY</v>
+            <v>CHARM</v>
           </cell>
           <cell r="B7">
             <v>3</v>
@@ -751,7 +752,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MAGIC</v>
+            <v>MANA</v>
           </cell>
           <cell r="B8">
             <v>4</v>
@@ -761,8 +762,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1177,7 +1177,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>'[1]@attribute_type'!$A7</f>
-        <v>VITALITY</v>
+        <v>CHARM</v>
       </c>
       <c r="B7" s="8">
         <f>'[1]@attribute_type'!$B7</f>
@@ -1203,7 +1203,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>'[1]@attribute_type'!$A8</f>
-        <v>MAGIC</v>
+        <v>MANA</v>
       </c>
       <c r="B8" s="8">
         <f>'[1]@attribute_type'!$B8</f>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,10 +1525,10 @@
       </c>
       <c r="C5" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D5,'!참조_ENUM'!$C$3:$C$10,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11">
         <v>0.5</v>
@@ -1544,10 +1544,10 @@
       </c>
       <c r="C6" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D6,'!참조_ENUM'!$C$3:$C$10,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11">
         <v>0.5</v>
@@ -1563,10 +1563,10 @@
       </c>
       <c r="C7" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D7,'!참조_ENUM'!$C$3:$C$10,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11">
         <v>0.5</v>
@@ -1582,10 +1582,10 @@
       </c>
       <c r="C8" s="11">
         <f>INDEX('!참조_ENUM'!$B$3:$B$10,MATCH(D8,'!참조_ENUM'!$C$3:$C$10,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="11">
         <v>0.5</v>
@@ -1596,7 +1596,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE0850E8-BED5-42C0-AC48-8015226CF50D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$8</xm:f>
@@ -1613,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FD538-A2BC-48BA-B803-2D75EC29AB04}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/AttributeSuperiority.xlsx
+++ b/Android/ExcelData/AttributeSuperiority.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4FAB37-BA61-44F4-82A2-BED14030A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFB813-99F8-4178-BF1A-C4C2900385CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="3090" windowWidth="28770" windowHeight="17415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43545" yWindow="2595" windowWidth="34815" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId1"/>
@@ -439,14 +439,43 @@
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
       <sheetName val="@res_type"/>
+      <sheetName val="!@story_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@story_type"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -470,210 +499,111 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ATTACK_VALUE</v>
+            <v>ATTACK_RATE</v>
           </cell>
           <cell r="B5">
-            <v>100</v>
+            <v>201</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력 절대값 계산</v>
+            <v>201 공격력 배율 계산</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DEFENSE_VALUE</v>
+            <v>DEFENSE_RATE</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>202</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 방어력 절대값 계산</v>
+            <v>202 방어력 배율 계산</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>MAX_LIFE</v>
+            <v>MAX_LIFE_RATE</v>
           </cell>
           <cell r="B7">
-            <v>102</v>
+            <v>203</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 최대 체력 절대 값</v>
+            <v>203 최대 체력 배율 값</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>LIFE</v>
+            <v>LIFE_RATE</v>
           </cell>
           <cell r="B8">
-            <v>103</v>
+            <v>204</v>
           </cell>
           <cell r="C8" t="str">
-            <v>103 현재 체력 절대 값</v>
+            <v>204 현재 체력 배율 계산</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>CRITICAL_CHANCE</v>
+            <v>CRITICAL_CHANCE_RATE</v>
           </cell>
           <cell r="B9">
-            <v>104</v>
+            <v>205</v>
           </cell>
           <cell r="C9" t="str">
-            <v>104 크리티컬 확률 절대값</v>
+            <v>205 크리티컬 확률 배율 계산</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>CRITICAL_POWER_ADD</v>
+            <v>CRITICAL_POWER_ADD_RATE</v>
           </cell>
           <cell r="B10">
-            <v>105</v>
+            <v>206</v>
           </cell>
           <cell r="C10" t="str">
-            <v>105 크리티컬 파워 절대 값</v>
+            <v>206 크리티컬 파워 배율 계산</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ACCURACY_VALUE</v>
+            <v>ACCURACY_RATE</v>
           </cell>
           <cell r="B11">
-            <v>106</v>
+            <v>207</v>
           </cell>
           <cell r="C11" t="str">
-            <v>106 명중률 절대 값</v>
+            <v>207 명중률 배율 계산</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>EVASION_VALUE</v>
+            <v>EVASION_RATE</v>
           </cell>
           <cell r="B12">
-            <v>107</v>
+            <v>208</v>
           </cell>
           <cell r="C12" t="str">
-            <v>107 회피율 절대 값</v>
+            <v>208 회피율 배율 계산</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>HEAL_VALUE</v>
+            <v>HEAL_RATE</v>
           </cell>
           <cell r="B13">
-            <v>108</v>
+            <v>209</v>
           </cell>
           <cell r="C13" t="str">
-            <v>108 회복량 절대 값</v>
+            <v>209 회복량 배율 계산</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ATTACK_RATE</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B14">
-            <v>201</v>
+            <v>210</v>
           </cell>
           <cell r="C14" t="str">
-            <v>201 공격력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>DEFENSE_RATE</v>
-          </cell>
-          <cell r="B15">
-            <v>202</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>202 방어력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>MAX_LIFE_RATE</v>
-          </cell>
-          <cell r="B16">
-            <v>203</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>203 최대 체력 배율 값</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>LIFE_RATE</v>
-          </cell>
-          <cell r="B17">
-            <v>204</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>204 현재 체력 배율 계산</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>CRITICAL_CHANCE_RATE</v>
-          </cell>
-          <cell r="B18">
-            <v>205</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>205 크리티컬 확률 배율 계산</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>CRITICAL_POWER_ADD_RATE</v>
-          </cell>
-          <cell r="B19">
-            <v>206</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>206 크리티컬 파워 배율 계산</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>ACCURACY_RATE</v>
-          </cell>
-          <cell r="B20">
-            <v>207</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>207 명중률 배율 계산</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>EVASION_RATE</v>
-          </cell>
-          <cell r="B21">
-            <v>208</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>208 회피율 배율 계산</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>HEAL_RATE</v>
-          </cell>
-          <cell r="B22">
-            <v>209</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>209 회복량 배율 계산</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B23">
-            <v>210</v>
-          </cell>
-          <cell r="C23" t="str">
             <v>210 피해량 배율 계산</v>
           </cell>
         </row>
@@ -763,7 +693,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1137,15 +1072,15 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A5</f>
-        <v>ATTACK_VALUE</v>
+        <v>ATTACK_RATE</v>
       </c>
       <c r="F5" s="4">
         <f>'[1]@stat'!$B5</f>
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>100 공격력 절대값 계산</v>
+        <v>201 공격력 배율 계산</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1163,15 +1098,15 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
-        <v>DEFENSE_VALUE</v>
+        <v>DEFENSE_RATE</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@stat'!$B6</f>
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>101 방어력 절대값 계산</v>
+        <v>202 방어력 배율 계산</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1189,15 +1124,15 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
-        <v>MAX_LIFE</v>
+        <v>MAX_LIFE_RATE</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@stat'!$B7</f>
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>102 최대 체력 절대 값</v>
+        <v>203 최대 체력 배율 값</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1215,225 +1150,225 @@
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
-        <v>LIFE</v>
+        <v>LIFE_RATE</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@stat'!$B8</f>
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>103 현재 체력 절대 값</v>
+        <v>204 현재 체력 배율 계산</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
-        <v>CRITICAL_CHANCE</v>
+        <v>CRITICAL_CHANCE_RATE</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@stat'!$B9</f>
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>104 크리티컬 확률 절대값</v>
+        <v>205 크리티컬 확률 배율 계산</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
-        <v>CRITICAL_POWER_ADD</v>
+        <v>CRITICAL_POWER_ADD_RATE</v>
       </c>
       <c r="F10" s="4">
         <f>'[1]@stat'!$B10</f>
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>105 크리티컬 파워 절대 값</v>
+        <v>206 크리티컬 파워 배율 계산</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
-        <v>ACCURACY_VALUE</v>
+        <v>ACCURACY_RATE</v>
       </c>
       <c r="F11" s="4">
         <f>'[1]@stat'!$B11</f>
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>106 명중률 절대 값</v>
+        <v>207 명중률 배율 계산</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
-        <v>EVASION_VALUE</v>
+        <v>EVASION_RATE</v>
       </c>
       <c r="F12" s="4">
         <f>'[1]@stat'!$B12</f>
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>107 회피율 절대 값</v>
+        <v>208 회피율 배율 계산</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
-        <v>HEAL_VALUE</v>
+        <v>HEAL_RATE</v>
       </c>
       <c r="F13" s="4">
         <f>'[1]@stat'!$B13</f>
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>108 회복량 절대 값</v>
+        <v>209 회복량 배율 계산</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
-        <v>ATTACK_RATE</v>
+        <v>DAMAGE</v>
       </c>
       <c r="F14" s="4">
         <f>'[1]@stat'!$B14</f>
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>201 공격력 배율 계산</v>
+        <v>210 피해량 배율 계산</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="4">
         <f>'[1]@stat'!$A15</f>
-        <v>DEFENSE_RATE</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <f>'[1]@stat'!$B15</f>
-        <v>202</v>
-      </c>
-      <c r="G15" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <f>'[1]@stat'!$C15</f>
-        <v>202 방어력 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="4">
         <f>'[1]@stat'!$A16</f>
-        <v>MAX_LIFE_RATE</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <f>'[1]@stat'!$B16</f>
-        <v>203</v>
-      </c>
-      <c r="G16" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <f>'[1]@stat'!$C16</f>
-        <v>203 최대 체력 배율 값</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="4">
         <f>'[1]@stat'!$A17</f>
-        <v>LIFE_RATE</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <f>'[1]@stat'!$B17</f>
-        <v>204</v>
-      </c>
-      <c r="G17" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
         <f>'[1]@stat'!$C17</f>
-        <v>204 현재 체력 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="4">
         <f>'[1]@stat'!$A18</f>
-        <v>CRITICAL_CHANCE_RATE</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
         <f>'[1]@stat'!$B18</f>
-        <v>205</v>
-      </c>
-      <c r="G18" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
         <f>'[1]@stat'!$C18</f>
-        <v>205 크리티컬 확률 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="4">
         <f>'[1]@stat'!$A19</f>
-        <v>CRITICAL_POWER_ADD_RATE</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <f>'[1]@stat'!$B19</f>
-        <v>206</v>
-      </c>
-      <c r="G19" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <f>'[1]@stat'!$C19</f>
-        <v>206 크리티컬 파워 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="4">
         <f>'[1]@stat'!$A20</f>
-        <v>ACCURACY_RATE</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <f>'[1]@stat'!$B20</f>
-        <v>207</v>
-      </c>
-      <c r="G20" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
         <f>'[1]@stat'!$C20</f>
-        <v>207 명중률 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="4">
         <f>'[1]@stat'!$A21</f>
-        <v>EVASION_RATE</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
         <f>'[1]@stat'!$B21</f>
-        <v>208</v>
-      </c>
-      <c r="G21" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <f>'[1]@stat'!$C21</f>
-        <v>208 회피율 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="4">
         <f>'[1]@stat'!$A22</f>
-        <v>HEAL_RATE</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
         <f>'[1]@stat'!$B22</f>
-        <v>209</v>
-      </c>
-      <c r="G22" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
         <f>'[1]@stat'!$C22</f>
-        <v>209 회복량 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="4">
         <f>'[1]@stat'!$A23</f>
-        <v>DAMAGE</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <f>'[1]@stat'!$B23</f>
-        <v>210</v>
-      </c>
-      <c r="G23" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <f>'[1]@stat'!$C23</f>
-        <v>210 피해량 배율 계산</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1382,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1527,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1601,7 +1536,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B8 D5:D8</xm:sqref>
+          <xm:sqref>D5:D8 B5:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
